--- a/data/leiden/Gegevens Leiden Stad 30042025.xlsx
+++ b/data/leiden/Gegevens Leiden Stad 30042025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qbuzz-my.sharepoint.com/personal/marcel_van_kooten_niekerk_qbuzz_nl/Documents/_UU/ThomasP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Dropbox\Master Thesis\data\leiden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{46BD9C1A-2D2F-40CC-BB2A-27AFDBFF476B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8303FC1-8179-410A-BBC6-087013F540EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFABDBE1-C50B-422D-AFBC-B3DB1670EE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{35CA8080-69ED-485E-8B62-04F02B36AEA0}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{35CA8080-69ED-485E-8B62-04F02B36AEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="RItten" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="58">
   <si>
     <t>Route</t>
   </si>
@@ -204,6 +204,21 @@
   <si>
     <t>Looptijd ldnsta-ldngar: 6 minuten</t>
   </si>
+  <si>
+    <t>Afschatting</t>
+  </si>
+  <si>
+    <t>Afschatting: https://maps.app.goo.gl/dPh5Mh2ikfZ7vxq1A</t>
+  </si>
+  <si>
+    <t>Afschatting: https://maps.app.goo.gl/d8ipXFBHgJEvNFdC9</t>
+  </si>
+  <si>
+    <t>Afschatting: https://maps.app.goo.gl/EUTVv3nnbSpjNFzn6</t>
+  </si>
+  <si>
+    <t>Afschatting: https://maps.app.goo.gl/GHREYMAqpRZQFtF99</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +260,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -261,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254A6E5C-24FC-4DE1-BFDE-466CD14CE7D8}">
   <dimension ref="A1:L324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12550,15 +12565,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C936E8-62EC-4F6F-9407-39C4F9F51E1C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12572,7 +12587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -12586,7 +12601,7 @@
         <v>4.4930000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -12600,7 +12615,7 @@
         <v>5.3650000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -12614,7 +12629,7 @@
         <v>2.6030000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -12628,7 +12643,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -12640,6 +12655,108 @@
       </c>
       <c r="D6">
         <v>4.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>7.6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>7.4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -12778,7 +12895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9583387C-AFDC-44AF-9D31-DF4509B903EB}">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
